--- a/data/echoMRI/Kotz09092025.xlsx
+++ b/data/echoMRI/Kotz09092025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcab/Documents/GitHub/data/data/echoMRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E03F78-79D0-E34F-B3DF-B26DA492DC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ECA8C8-97D6-174D-88D1-9EAF043EC83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="11360" windowHeight="9220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
@@ -58,331 +58,331 @@
     <t>2323</t>
   </si>
   <si>
-    <t>11:42:10; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>2330</t>
   </si>
   <si>
-    <t>11:43:29; 9 Sep 2025; 32; ems</t>
-  </si>
-  <si>
     <t>2314</t>
   </si>
   <si>
-    <t>11:44:28; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>2308</t>
   </si>
   <si>
-    <t>11:45:30; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>2318</t>
   </si>
   <si>
-    <t>11:46:45; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>2325</t>
   </si>
   <si>
-    <t>11:47:50; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>2311</t>
   </si>
   <si>
-    <t>11:48:51; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>2310</t>
   </si>
   <si>
-    <t>11:49:55; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>2319</t>
   </si>
   <si>
-    <t>11:51:00; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>2320</t>
   </si>
   <si>
-    <t>11:52:37; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>2324</t>
   </si>
   <si>
-    <t>11:53:59; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>2315</t>
   </si>
   <si>
-    <t>11:54:54; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>2322</t>
   </si>
   <si>
-    <t>11:55:52; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>2316</t>
   </si>
   <si>
-    <t>11:57:04; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>231246.1</t>
   </si>
   <si>
-    <t>11:58:28; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>2327</t>
   </si>
   <si>
-    <t>11:59:35; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>2326</t>
   </si>
   <si>
-    <t>12:00:48; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9400</t>
   </si>
   <si>
-    <t>12:03:57; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9403</t>
   </si>
   <si>
-    <t>12:05:55; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>9404</t>
   </si>
   <si>
-    <t>12:07:11; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>9405</t>
   </si>
   <si>
-    <t>12:08:19; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>9407</t>
   </si>
   <si>
-    <t>12:09:35; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>9410</t>
   </si>
   <si>
-    <t>12:10:55; 9 Sep 2025; 32; ems</t>
-  </si>
-  <si>
     <t>9401</t>
   </si>
   <si>
-    <t>12:12:11; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9402</t>
   </si>
   <si>
-    <t>12:13:28; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>9406</t>
   </si>
   <si>
-    <t>12:14:38; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>9411</t>
   </si>
   <si>
-    <t>12:16:00; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>9412</t>
   </si>
   <si>
-    <t>12:17:11; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>9414</t>
   </si>
   <si>
-    <t>12:18:16; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9415</t>
   </si>
   <si>
-    <t>12:19:27; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9417</t>
   </si>
   <si>
-    <t>12:20:44; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9418</t>
   </si>
   <si>
-    <t>12:21:59; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9370</t>
   </si>
   <si>
-    <t>12:26:19; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9358</t>
   </si>
   <si>
-    <t>12:27:30; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9367</t>
   </si>
   <si>
-    <t>12:28:31; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>9369</t>
   </si>
   <si>
-    <t>12:29:27; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9357</t>
   </si>
   <si>
-    <t>12:30:23; 9 Sep 2025; 32; ems</t>
-  </si>
-  <si>
     <t>9368</t>
   </si>
   <si>
-    <t>12:31:36; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>9360</t>
   </si>
   <si>
-    <t>12:32:50; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9361</t>
   </si>
   <si>
-    <t>12:33:48; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9359</t>
   </si>
   <si>
-    <t>12:34:55; 9 Sep 2025; 27; ems</t>
-  </si>
-  <si>
     <t>9372</t>
   </si>
   <si>
-    <t>12:35:53; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9375</t>
   </si>
   <si>
-    <t>12:36:51; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9378</t>
   </si>
   <si>
-    <t>12:37:59; 9 Sep 2025; 36; ems</t>
-  </si>
-  <si>
     <t>9363</t>
   </si>
   <si>
-    <t>12:39:13; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9355</t>
   </si>
   <si>
-    <t>12:40:17; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9376</t>
   </si>
   <si>
-    <t>12:41:25; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9373</t>
   </si>
   <si>
-    <t>12:42:30; 9 Sep 2025; 32; ems</t>
-  </si>
-  <si>
     <t>9353</t>
   </si>
   <si>
-    <t>12:43:38; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9374</t>
   </si>
   <si>
-    <t>12:44:39; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9377</t>
   </si>
   <si>
-    <t>12:46:30; 9 Sep 2025; 32; ems</t>
-  </si>
-  <si>
     <t>9366</t>
   </si>
   <si>
-    <t>12:47:40; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9362</t>
   </si>
   <si>
-    <t>12:48:49; 9 Sep 2025; 32; ems</t>
-  </si>
-  <si>
     <t>9356</t>
   </si>
   <si>
-    <t>12:50:01; 9 Sep 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9364</t>
   </si>
   <si>
-    <t>12:51:06; 9 Sep 2025; 31; ems</t>
+    <t>11:42:10 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>11:43:29 Sep 9, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>11:44:28 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>11:45:30 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>11:46:45 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>11:47:50 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>11:48:51 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>11:49:55 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>11:51:00 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>11:52:37 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>11:53:59 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>11:54:54 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>11:55:52 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>11:57:04 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>11:58:28 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>11:59:35 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:03:57 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:05:55 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>12:07:11 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>12:08:19 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>12:09:35 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>12:10:55 Sep 9, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>12:12:11 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:13:28 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>12:14:38 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>12:16:00 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>12:17:11 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>12:18:16 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:19:27 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:20:44 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:21:59 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:26:19 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:27:30 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:28:31 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>12:29:27 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:30:23 Sep 9, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>12:31:36 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>12:32:50 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:33:48 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:34:55 Sep 9, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>12:35:53 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:36:51 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:37:59 Sep 9, 2025; 36; ems</t>
+  </si>
+  <si>
+    <t>12:39:13 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:40:17 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:41:25 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:42:30 Sep 9, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>12:43:38 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:44:39 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:46:30 Sep 9, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>12:47:40 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:48:49 Sep 9, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>12:50:01 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:51:06 Sep 9, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>12:00:48 Sep 9, 2025; 31; ems</t>
   </si>
 </sst>
 </file>
@@ -723,9 +723,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="7" max="7" width="26.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -779,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -793,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1.63</v>
@@ -808,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -822,7 +827,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>23.11</v>
@@ -837,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -851,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>6.17</v>
@@ -866,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -880,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>5.98</v>
@@ -895,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -909,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>10.65</v>
@@ -924,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -938,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>10.11</v>
@@ -953,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -967,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>6.41</v>
@@ -982,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -996,7 +1001,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>23.52</v>
@@ -1011,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1025,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>13.1</v>
@@ -1040,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1054,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>10.5</v>
@@ -1069,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1083,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>7.47</v>
@@ -1098,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1112,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>12.99</v>
@@ -1127,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1141,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>22.74</v>
@@ -1156,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1170,7 +1175,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>24.13</v>
@@ -1185,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1199,7 +1204,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>6.27</v>
@@ -1214,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1228,7 +1233,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>14.32</v>
@@ -1243,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1257,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>4.18</v>
@@ -1272,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1286,7 +1291,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>6.88</v>
@@ -1301,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1315,7 +1320,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>0.67</v>
@@ -1330,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1344,7 +1349,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>4.87</v>
@@ -1359,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1373,7 +1378,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>6.97</v>
@@ -1388,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1402,7 +1407,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>14.73</v>
@@ -1417,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1431,7 +1436,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>3.31</v>
@@ -1446,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1460,7 +1465,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>3.21</v>
@@ -1475,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1489,7 +1494,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>0.85</v>
@@ -1504,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1518,7 +1523,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>2.2200000000000002</v>
@@ -1533,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1547,7 +1552,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>1.36</v>
@@ -1562,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1576,7 +1581,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>2.1</v>
@@ -1591,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1605,7 +1610,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <v>8.9700000000000006</v>
@@ -1620,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1634,7 +1639,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>5.16</v>
@@ -1649,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1663,7 +1668,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>3.9</v>
@@ -1678,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1692,7 +1697,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <v>5.37</v>
@@ -1707,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1721,7 +1726,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>22.42</v>
@@ -1736,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1750,7 +1755,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <v>1.49</v>
@@ -1765,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1779,7 +1784,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>6.3</v>
@@ -1794,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1808,7 +1813,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C38">
         <v>8.93</v>
@@ -1823,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1837,7 +1842,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>2.5499999999999998</v>
@@ -1852,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1866,7 +1871,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>2.88</v>
@@ -1881,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1895,7 +1900,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>22.05</v>
@@ -1910,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1924,7 +1929,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>1.41</v>
@@ -1939,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -1953,7 +1958,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>2.54</v>
@@ -1968,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1982,7 +1987,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>0.92</v>
@@ -1997,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -2011,7 +2016,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>1.68</v>
@@ -2026,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -2040,7 +2045,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>5.3</v>
@@ -2055,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -2069,7 +2074,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>5.77</v>
@@ -2084,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -2098,7 +2103,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>1.48</v>
@@ -2113,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2127,7 +2132,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>8.07</v>
@@ -2142,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2156,7 +2161,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>13.75</v>
@@ -2171,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -2185,7 +2190,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>12.81</v>
@@ -2200,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2214,7 +2219,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>6.82</v>
@@ -2229,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2243,7 +2248,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C53">
         <v>7.18</v>
@@ -2258,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2272,7 +2277,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="C54">
         <v>11.11</v>
@@ -2287,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -2301,7 +2306,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C55">
         <v>8.23</v>
@@ -2330,7 +2335,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C56">
         <v>10.53</v>
@@ -2345,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H56">
         <v>1</v>

--- a/data/echoMRI/Kotz09092025.xlsx
+++ b/data/echoMRI/Kotz09092025.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10125"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcab/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ECA8C8-97D6-174D-88D1-9EAF043EC83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE68293E-C606-6D45-824E-65D5210432DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ExtractedScans!$A$1:$J$56</definedName>
     <definedName name="ExtractedScans">ExtractedScans!$A$1:$J$56</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -723,13 +724,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="7" max="7" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
